--- a/biology/Botanique/Amborella_trichopoda/Amborella_trichopoda.xlsx
+++ b/biology/Botanique/Amborella_trichopoda/Amborella_trichopoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amborella trichopoda est une espèce de plantes à fleurs endémique des forêts pluvieuses de Nouvelle-Calédonie. Cette espèce appartient à la lignée la plus primitive des plantes à fleurs actuelles.
-C'est actuellement le taxon le plus basal de l'arbre phylogénétique des angiospermes (c'est-à-dire des plantes à fleurs). Cela signifie que la lignée évolutive ayant conduit aujourd'hui à cette espèce est la première à s'être différenciée au cours de l'évolution des plantes à fleurs, qui a débuté il y a environ 145 millions d'années (Crétacé)[1],[2].
+C'est actuellement le taxon le plus basal de l'arbre phylogénétique des angiospermes (c'est-à-dire des plantes à fleurs). Cela signifie que la lignée évolutive ayant conduit aujourd'hui à cette espèce est la première à s'être différenciée au cours de l'évolution des plantes à fleurs, qui a débuté il y a environ 145 millions d'années (Crétacé),.
 Amborella est un genre monospécifique : il ne contient qu'une seule espèce Amborella trichopoda.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amborella trichopoda est un arbuste dioïque à feuilles persistantes.
@@ -546,9 +560,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers –200 millions d'années, le génome de l'ancêtre commun à toutes les plantes à fleurs a doublé. Une première branche va donner naissance à Amborella trichopoda, la seule survivante de cette lignée, avec ses 14 000 gènes[3]. Une seconde branche va donner naissance aux quelque 300 000 plantes à fleurs actuelles. Elle se situe à la base des angiospermes et possède donc certains caractères considérés comme archaïques. Amborella trichopoda est l'ornithorynque des fleurs. L'analyse de son ADN mitochondrial a révélé l'intégration de six génomes étrangers appartenant à des mousses, des algues vertes et d'autres plantes à fleurs. Le séquençage de son génome permettra de comprendre les mécanismes d'évolution des angiospermes comme la capacité des graines à accumuler un maximum de réserves nutritives (protéines, lipides, etc.) dans un minimum d'espace[4],[5],[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers –200 millions d'années, le génome de l'ancêtre commun à toutes les plantes à fleurs a doublé. Une première branche va donner naissance à Amborella trichopoda, la seule survivante de cette lignée, avec ses 14 000 gènes. Une seconde branche va donner naissance aux quelque 300 000 plantes à fleurs actuelles. Elle se situe à la base des angiospermes et possède donc certains caractères considérés comme archaïques. Amborella trichopoda est l'ornithorynque des fleurs. L'analyse de son ADN mitochondrial a révélé l'intégration de six génomes étrangers appartenant à des mousses, des algues vertes et d'autres plantes à fleurs. Le séquençage de son génome permettra de comprendre les mécanismes d'évolution des angiospermes comme la capacité des graines à accumuler un maximum de réserves nutritives (protéines, lipides, etc.) dans un minimum d'espace.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le séquençage génétique d'Amborella trichopoda a été effectué en 2013[8]. Le système de détermination sexuelle est de type ZW, comme chez les oiseaux : deux chromosomes sexuels différents chez la femelle (ZW), identiques chez le mâle (ZZ). Le génome comporte 59 mégabases, dont une région de 4 Mb ne se recombine pas. On peut dater la fin de cette recombinaison à environ 16,5 Ma (millions d'années), elle est donc bien plus récente que la séparation de la lignée conduisant à A. trichopoda (environ 130 Ma). Cette lignée présentait donc sans doute, originellement, des fleurs bisexuées, comme sans doute aussi le dernier ancêtre commun des angiospermes[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le séquençage génétique d'Amborella trichopoda a été effectué en 2013. Le système de détermination sexuelle est de type ZW, comme chez les oiseaux : deux chromosomes sexuels différents chez la femelle (ZW), identiques chez le mâle (ZZ). Le génome comporte 59 mégabases, dont une région de 4 Mb ne se recombine pas. On peut dater la fin de cette recombinaison à environ 16,5 Ma (millions d'années), elle est donc bien plus récente que la séparation de la lignée conduisant à A. trichopoda (environ 130 Ma). Cette lignée présentait donc sans doute, originellement, des fleurs bisexuées, comme sans doute aussi le dernier ancêtre commun des angiospermes.
 </t>
         </is>
       </c>
